--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fgf2-Fgfr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fgf2-Fgfr3.xlsx
@@ -537,46 +537,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.2151743333333333</v>
+        <v>0.313179</v>
       </c>
       <c r="H2">
-        <v>0.645523</v>
+        <v>0.939537</v>
       </c>
       <c r="I2">
-        <v>0.01945888736810517</v>
+        <v>0.02707464596575709</v>
       </c>
       <c r="J2">
-        <v>0.01945888736810517</v>
+        <v>0.0270746459657571</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>2.619953333333334</v>
+        <v>5.751166666666666</v>
       </c>
       <c r="N2">
-        <v>7.85986</v>
+        <v>17.2535</v>
       </c>
       <c r="O2">
-        <v>0.6100029538328192</v>
+        <v>0.7405222614421495</v>
       </c>
       <c r="P2">
-        <v>0.6100029538328192</v>
+        <v>0.7405222614421495</v>
       </c>
       <c r="Q2">
-        <v>0.5637467118644445</v>
+        <v>1.8011446255</v>
       </c>
       <c r="R2">
-        <v>5.07372040678</v>
+        <v>16.2103016295</v>
       </c>
       <c r="S2">
-        <v>0.01186997877284429</v>
+        <v>0.02004937805830801</v>
       </c>
       <c r="T2">
-        <v>0.01186997877284429</v>
+        <v>0.02004937805830801</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.2151743333333333</v>
+        <v>0.313179</v>
       </c>
       <c r="H3">
-        <v>0.645523</v>
+        <v>0.939537</v>
       </c>
       <c r="I3">
-        <v>0.01945888736810517</v>
+        <v>0.02707464596575709</v>
       </c>
       <c r="J3">
-        <v>0.01945888736810517</v>
+        <v>0.0270746459657571</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>1.709545</v>
       </c>
       <c r="O3">
-        <v>0.1326776176306101</v>
+        <v>0.07337387367415998</v>
       </c>
       <c r="P3">
-        <v>0.1326776176306101</v>
+        <v>0.07337387367416</v>
       </c>
       <c r="Q3">
-        <v>0.1226167352261111</v>
+        <v>0.178464531185</v>
       </c>
       <c r="R3">
-        <v>1.103550617035</v>
+        <v>1.606180780665</v>
       </c>
       <c r="S3">
-        <v>0.002581758817742566</v>
+        <v>0.001986571652864066</v>
       </c>
       <c r="T3">
-        <v>0.002581758817742566</v>
+        <v>0.001986571652864067</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.2151743333333333</v>
+        <v>0.313179</v>
       </c>
       <c r="H4">
-        <v>0.645523</v>
+        <v>0.939537</v>
       </c>
       <c r="I4">
-        <v>0.01945888736810517</v>
+        <v>0.02707464596575709</v>
       </c>
       <c r="J4">
-        <v>0.01945888736810517</v>
+        <v>0.0270746459657571</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.105183</v>
+        <v>1.445350666666667</v>
       </c>
       <c r="N4">
-        <v>3.315549</v>
+        <v>4.336052</v>
       </c>
       <c r="O4">
-        <v>0.2573194285365706</v>
+        <v>0.1861038648836906</v>
       </c>
       <c r="P4">
-        <v>0.2573194285365706</v>
+        <v>0.1861038648836906</v>
       </c>
       <c r="Q4">
-        <v>0.2378070152363333</v>
+        <v>0.4526534764360001</v>
       </c>
       <c r="R4">
-        <v>2.140263137127</v>
+        <v>4.073881287924</v>
       </c>
       <c r="S4">
-        <v>0.005007149777518315</v>
+        <v>0.005038696254585017</v>
       </c>
       <c r="T4">
-        <v>0.005007149777518315</v>
+        <v>0.005038696254585018</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,40 +729,40 @@
         <v>24.231544</v>
       </c>
       <c r="I5">
-        <v>0.730444748601188</v>
+        <v>0.6982806158817221</v>
       </c>
       <c r="J5">
-        <v>0.730444748601188</v>
+        <v>0.6982806158817222</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>2.619953333333334</v>
+        <v>5.751166666666666</v>
       </c>
       <c r="N5">
-        <v>7.85986</v>
+        <v>17.2535</v>
       </c>
       <c r="O5">
-        <v>0.6100029538328192</v>
+        <v>0.7405222614421495</v>
       </c>
       <c r="P5">
-        <v>0.6100029538328192</v>
+        <v>0.7405222614421495</v>
       </c>
       <c r="Q5">
-        <v>21.16183815820445</v>
+        <v>46.45321604488889</v>
       </c>
       <c r="R5">
-        <v>190.45654342384</v>
+        <v>418.078944404</v>
       </c>
       <c r="S5">
-        <v>0.4455734542583957</v>
+        <v>0.5170923407939497</v>
       </c>
       <c r="T5">
-        <v>0.4455734542583957</v>
+        <v>0.5170923407939498</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>24.231544</v>
       </c>
       <c r="I6">
-        <v>0.730444748601188</v>
+        <v>0.6982806158817221</v>
       </c>
       <c r="J6">
-        <v>0.730444748601188</v>
+        <v>0.6982806158817222</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,10 +809,10 @@
         <v>1.709545</v>
       </c>
       <c r="O6">
-        <v>0.1326776176306101</v>
+        <v>0.07337387367415998</v>
       </c>
       <c r="P6">
-        <v>0.1326776176306101</v>
+        <v>0.07337387367416</v>
       </c>
       <c r="Q6">
         <v>4.602768320831111</v>
@@ -821,10 +821,10 @@
         <v>41.42491488747999</v>
       </c>
       <c r="S6">
-        <v>0.09691366905519552</v>
+        <v>0.05123555369882011</v>
       </c>
       <c r="T6">
-        <v>0.09691366905519552</v>
+        <v>0.05123555369882012</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>24.231544</v>
       </c>
       <c r="I7">
-        <v>0.730444748601188</v>
+        <v>0.6982806158817221</v>
       </c>
       <c r="J7">
-        <v>0.730444748601188</v>
+        <v>0.6982806158817222</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.105183</v>
+        <v>1.445350666666667</v>
       </c>
       <c r="N7">
-        <v>3.315549</v>
+        <v>4.336052</v>
       </c>
       <c r="O7">
-        <v>0.2573194285365706</v>
+        <v>0.1861038648836906</v>
       </c>
       <c r="P7">
-        <v>0.2573194285365706</v>
+        <v>0.1861038648836906</v>
       </c>
       <c r="Q7">
-        <v>8.926763497517333</v>
+        <v>11.67435942492089</v>
       </c>
       <c r="R7">
-        <v>80.34087147765599</v>
+        <v>105.069234824288</v>
       </c>
       <c r="S7">
-        <v>0.1879576252875967</v>
+        <v>0.1299527213889523</v>
       </c>
       <c r="T7">
-        <v>0.1879576252875967</v>
+        <v>0.1299527213889523</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,46 +909,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.246363333333333</v>
+        <v>2.897745666666667</v>
       </c>
       <c r="H8">
-        <v>6.73909</v>
+        <v>8.693237</v>
       </c>
       <c r="I8">
-        <v>0.2031456559619469</v>
+        <v>0.2505130868410934</v>
       </c>
       <c r="J8">
-        <v>0.2031456559619469</v>
+        <v>0.2505130868410934</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>2.619953333333334</v>
+        <v>5.751166666666666</v>
       </c>
       <c r="N8">
-        <v>7.85986</v>
+        <v>17.2535</v>
       </c>
       <c r="O8">
-        <v>0.6100029538328192</v>
+        <v>0.7405222614421495</v>
       </c>
       <c r="P8">
-        <v>0.6100029538328192</v>
+        <v>0.7405222614421495</v>
       </c>
       <c r="Q8">
-        <v>5.885367103044445</v>
+        <v>16.66541828661111</v>
       </c>
       <c r="R8">
-        <v>52.9683039274</v>
+        <v>149.9887645795</v>
       </c>
       <c r="S8">
-        <v>0.1239194501950933</v>
+        <v>0.18551051758842</v>
       </c>
       <c r="T8">
-        <v>0.1239194501950933</v>
+        <v>0.18551051758842</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.246363333333333</v>
+        <v>2.897745666666667</v>
       </c>
       <c r="H9">
-        <v>6.73909</v>
+        <v>8.693237</v>
       </c>
       <c r="I9">
-        <v>0.2031456559619469</v>
+        <v>0.2505130868410934</v>
       </c>
       <c r="J9">
-        <v>0.2031456559619469</v>
+        <v>0.2505130868410934</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,22 +995,22 @@
         <v>1.709545</v>
       </c>
       <c r="O9">
-        <v>0.1326776176306101</v>
+        <v>0.07337387367415998</v>
       </c>
       <c r="P9">
-        <v>0.1326776176306101</v>
+        <v>0.07337387367416</v>
       </c>
       <c r="Q9">
-        <v>1.280086401561111</v>
+        <v>1.651275538573889</v>
       </c>
       <c r="R9">
-        <v>11.52077761405</v>
+        <v>14.861479847165</v>
       </c>
       <c r="S9">
-        <v>0.02695288166503866</v>
+        <v>0.01838111558760226</v>
       </c>
       <c r="T9">
-        <v>0.02695288166503866</v>
+        <v>0.01838111558760226</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.246363333333333</v>
+        <v>2.897745666666667</v>
       </c>
       <c r="H10">
-        <v>6.73909</v>
+        <v>8.693237</v>
       </c>
       <c r="I10">
-        <v>0.2031456559619469</v>
+        <v>0.2505130868410934</v>
       </c>
       <c r="J10">
-        <v>0.2031456559619469</v>
+        <v>0.2505130868410934</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.105183</v>
+        <v>1.445350666666667</v>
       </c>
       <c r="N10">
-        <v>3.315549</v>
+        <v>4.336052</v>
       </c>
       <c r="O10">
-        <v>0.2573194285365706</v>
+        <v>0.1861038648836906</v>
       </c>
       <c r="P10">
-        <v>0.2573194285365706</v>
+        <v>0.1861038648836906</v>
       </c>
       <c r="Q10">
-        <v>2.482642567823333</v>
+        <v>4.188258631147112</v>
       </c>
       <c r="R10">
-        <v>22.34378311041</v>
+        <v>37.694327680324</v>
       </c>
       <c r="S10">
-        <v>0.05227332410181497</v>
+        <v>0.04662145366507109</v>
       </c>
       <c r="T10">
-        <v>0.05227332410181497</v>
+        <v>0.04662145366507109</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>20</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.519176</v>
+        <v>0.2791366666666666</v>
       </c>
       <c r="H11">
-        <v>1.557528</v>
+        <v>0.83741</v>
       </c>
       <c r="I11">
-        <v>0.04695070806875992</v>
+        <v>0.02413165131142748</v>
       </c>
       <c r="J11">
-        <v>0.04695070806875992</v>
+        <v>0.02413165131142749</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>2.619953333333334</v>
+        <v>5.751166666666666</v>
       </c>
       <c r="N11">
-        <v>7.85986</v>
+        <v>17.2535</v>
       </c>
       <c r="O11">
-        <v>0.6100029538328192</v>
+        <v>0.7405222614421495</v>
       </c>
       <c r="P11">
-        <v>0.6100029538328192</v>
+        <v>0.7405222614421495</v>
       </c>
       <c r="Q11">
-        <v>1.360216891786667</v>
+        <v>1.605361492777778</v>
       </c>
       <c r="R11">
-        <v>12.24195202608</v>
+        <v>14.448253435</v>
       </c>
       <c r="S11">
-        <v>0.02864007060648593</v>
+        <v>0.0178700250014717</v>
       </c>
       <c r="T11">
-        <v>0.02864007060648593</v>
+        <v>0.0178700250014717</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.519176</v>
+        <v>0.2791366666666666</v>
       </c>
       <c r="H12">
-        <v>1.557528</v>
+        <v>0.83741</v>
       </c>
       <c r="I12">
-        <v>0.04695070806875992</v>
+        <v>0.02413165131142748</v>
       </c>
       <c r="J12">
-        <v>0.04695070806875992</v>
+        <v>0.02413165131142749</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,22 +1181,22 @@
         <v>1.709545</v>
       </c>
       <c r="O12">
-        <v>0.1326776176306101</v>
+        <v>0.07337387367415998</v>
       </c>
       <c r="P12">
-        <v>0.1326776176306101</v>
+        <v>0.07337387367416</v>
       </c>
       <c r="Q12">
-        <v>0.2958515783066666</v>
+        <v>0.1590655642722222</v>
       </c>
       <c r="R12">
-        <v>2.66266420476</v>
+        <v>1.43159007845</v>
       </c>
       <c r="S12">
-        <v>0.006229308092633327</v>
+        <v>0.001770632734873557</v>
       </c>
       <c r="T12">
-        <v>0.006229308092633327</v>
+        <v>0.001770632734873558</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.519176</v>
+        <v>0.2791366666666666</v>
       </c>
       <c r="H13">
-        <v>1.557528</v>
+        <v>0.83741</v>
       </c>
       <c r="I13">
-        <v>0.04695070806875992</v>
+        <v>0.02413165131142748</v>
       </c>
       <c r="J13">
-        <v>0.04695070806875992</v>
+        <v>0.02413165131142749</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.105183</v>
+        <v>1.445350666666667</v>
       </c>
       <c r="N13">
-        <v>3.315549</v>
+        <v>4.336052</v>
       </c>
       <c r="O13">
-        <v>0.2573194285365706</v>
+        <v>0.1861038648836906</v>
       </c>
       <c r="P13">
-        <v>0.2573194285365706</v>
+        <v>0.1861038648836906</v>
       </c>
       <c r="Q13">
-        <v>0.573784489208</v>
+        <v>0.4034503672577778</v>
       </c>
       <c r="R13">
-        <v>5.164060402871999</v>
+        <v>3.63105330532</v>
       </c>
       <c r="S13">
-        <v>0.01208132936964066</v>
+        <v>0.004490993575082236</v>
       </c>
       <c r="T13">
-        <v>0.01208132936964066</v>
+        <v>0.004490993575082237</v>
       </c>
     </row>
   </sheetData>
